--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3635.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3635.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3635</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rubel Hossain</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>14/01/2009</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2916</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>21/01/2009</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>23/01/2009</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/07/2009</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/01/2010</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>07/01/2010</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/02/2010</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/02/2010</t>
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1136,7 +1193,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>02/03/2010</t>
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1236,7 +1292,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -1244,7 +1299,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/10/2010</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1656,7 +1710,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1696,7 +1750,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>11/03/2011</t>
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>14/03/2011</t>
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3266</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1844,7 +1896,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>11/04/2011</t>
@@ -1852,7 +1903,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1956,7 +2007,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2008,7 +2059,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2099,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>19/08/2011</t>
@@ -2056,7 +2106,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2096,7 +2146,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>21/08/2011</t>
@@ -2104,7 +2153,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2144,7 +2193,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>13/10/2011</t>
@@ -2152,7 +2200,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2204,7 +2252,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2256,7 +2304,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2296,7 +2344,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>03/12/2011</t>
@@ -2304,7 +2351,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2356,7 +2403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2396,7 +2443,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>23/03/2013</t>
@@ -2404,7 +2450,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2444,7 +2490,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -2452,7 +2497,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2504,7 +2549,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2556,7 +2601,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2596,7 +2641,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>03/11/2013</t>
@@ -2604,7 +2648,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2656,7 +2700,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2708,7 +2752,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2748,7 +2792,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>22/02/2014</t>
@@ -2756,7 +2799,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2796,7 +2839,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>26/02/2014</t>
@@ -2804,7 +2846,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2856,7 +2898,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2908,7 +2950,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2948,7 +2990,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/11/2014</t>
@@ -2956,7 +2997,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3008,7 +3049,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3048,7 +3089,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>26/11/2014</t>
@@ -3056,7 +3096,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3108,7 +3148,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3160,7 +3200,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3212,7 +3252,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3252,7 +3292,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -3260,7 +3299,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3300,7 +3339,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>09/03/2015</t>
@@ -3308,7 +3346,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3360,7 +3398,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3412,7 +3450,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3452,7 +3490,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>17/04/2015</t>
@@ -3460,7 +3497,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3500,7 +3537,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>19/04/2015</t>
@@ -3508,7 +3544,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3548,7 +3584,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -3556,7 +3591,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3608,7 +3643,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3648,7 +3683,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>21/06/2015</t>
@@ -3656,7 +3690,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3708,7 +3742,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3748,7 +3782,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -3756,7 +3789,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3796,7 +3829,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -3804,7 +3836,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3856,7 +3888,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3908,7 +3940,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3948,7 +3980,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -3956,7 +3987,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4008,7 +4039,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4048,7 +4079,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -4056,7 +4086,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4096,7 +4126,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -4104,7 +4133,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4144,7 +4173,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -4152,7 +4180,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4204,7 +4232,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4244,7 +4272,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -4252,7 +4279,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4292,7 +4319,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -4300,7 +4326,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4340,7 +4366,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -4348,7 +4373,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4400,7 +4425,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4452,7 +4477,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4492,7 +4517,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -4500,7 +4524,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4540,7 +4564,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>19/01/2018</t>
@@ -4548,7 +4571,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4600,7 +4623,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4652,7 +4675,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4704,7 +4727,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4744,7 +4767,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -4752,7 +4774,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4792,7 +4814,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>25/07/2018</t>
@@ -4800,7 +4821,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4840,7 +4861,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -4848,7 +4868,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4900,7 +4920,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4952,7 +4972,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5004,7 +5024,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5056,7 +5076,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5108,7 +5128,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5148,7 +5168,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>09/12/2018</t>
@@ -5156,7 +5175,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5196,7 +5215,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -5204,7 +5222,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5256,7 +5274,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5296,7 +5314,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>15/05/2019</t>
@@ -5304,7 +5321,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5344,7 +5361,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -5352,7 +5368,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5404,7 +5420,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5456,7 +5472,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5508,7 +5524,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5548,7 +5564,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>20/01/2021</t>
@@ -5556,7 +5571,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5596,7 +5611,6 @@
           <t>103</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -5604,7 +5618,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5656,7 +5670,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5695,7 +5709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5717,7 +5731,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5754,7 +5768,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5791,7 +5805,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2916</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5828,7 +5842,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5865,7 +5879,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5902,7 +5916,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5939,7 +5953,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5976,7 +5990,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6013,7 +6027,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6050,7 +6064,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6087,7 +6101,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6124,7 +6138,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6161,7 +6175,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6198,7 +6212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6235,7 +6249,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6272,7 +6286,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6309,7 +6323,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6346,7 +6360,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6383,7 +6397,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6420,7 +6434,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6457,7 +6471,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6494,7 +6508,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6531,7 +6545,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6568,7 +6582,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6605,7 +6619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6642,7 +6656,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6679,7 +6693,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3266</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6716,7 +6730,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6753,7 +6767,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6790,7 +6804,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6827,7 +6841,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6864,7 +6878,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6901,7 +6915,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6938,7 +6952,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6975,7 +6989,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7012,7 +7026,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7049,7 +7063,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7086,7 +7100,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7123,7 +7137,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7160,7 +7174,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7197,7 +7211,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7234,7 +7248,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7271,7 +7285,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7308,7 +7322,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7345,7 +7359,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7382,7 +7396,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7419,7 +7433,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7456,7 +7470,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7493,7 +7507,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7530,7 +7544,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7567,7 +7581,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7604,7 +7618,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7641,7 +7655,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7678,7 +7692,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7715,7 +7729,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7752,7 +7766,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7789,7 +7803,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7826,7 +7840,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7863,7 +7877,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7900,7 +7914,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7937,7 +7951,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7974,7 +7988,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8011,7 +8025,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8048,7 +8062,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8085,7 +8099,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8122,7 +8136,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8159,7 +8173,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8196,7 +8210,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8233,7 +8247,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8270,7 +8284,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8307,7 +8321,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8344,7 +8358,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8381,7 +8395,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8418,7 +8432,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8455,7 +8469,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8492,7 +8506,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8529,7 +8543,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8566,7 +8580,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8603,7 +8617,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8640,7 +8654,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8677,7 +8691,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8714,7 +8728,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8751,7 +8765,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8788,7 +8802,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8825,7 +8839,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8862,7 +8876,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8899,7 +8913,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8936,7 +8950,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8973,7 +8987,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9010,7 +9024,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9047,7 +9061,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9084,7 +9098,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9121,7 +9135,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9158,7 +9172,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9195,7 +9209,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9232,7 +9246,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -9269,7 +9283,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9306,7 +9320,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9343,7 +9357,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9380,7 +9394,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -9417,7 +9431,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -9454,7 +9468,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9491,7 +9505,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -9519,6 +9533,481 @@
           <t>3/70</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4181</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4445</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3635.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3635.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9604,7 +9605,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9617,15 +9617,412 @@
           <t>4179</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4181</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4445</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9633,15 +10030,14 @@
           <t>4180</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -9651,15 +10047,14 @@
           <t>4181</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9669,27 +10064,14 @@
           <t>4193</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9699,27 +10081,14 @@
           <t>4198</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>11</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9729,27 +10098,14 @@
           <t>4199</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9759,23 +10115,14 @@
           <t>4204</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9785,15 +10132,14 @@
           <t>4205</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -9803,27 +10149,14 @@
           <t>4228</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.24%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9833,13 +10166,14 @@
           <t>4229</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -9849,13 +10183,14 @@
           <t>4252</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9865,29 +10200,8 @@
           <t>4295</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9897,13 +10211,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9911,13 +10218,14 @@
           <t>4345</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9929,13 +10237,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9943,17 +10244,8 @@
           <t>4358</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9961,29 +10253,8 @@
           <t>4443</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9991,11 +10262,12 @@
           <t>4445</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10003,11 +10275,16 @@
           <t>4455</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3635.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3635.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>14/01/2009</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>21/01/2009</t>
@@ -756,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>23/01/2009</t>
@@ -855,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/07/2009</t>
@@ -954,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/01/2010</t>
@@ -1001,6 +1004,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>07/01/2010</t>
@@ -1100,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/02/2010</t>
@@ -1147,6 +1152,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/02/2010</t>
@@ -1194,6 +1200,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>02/03/2010</t>
@@ -1293,6 +1300,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -1444,6 +1452,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/10/2010</t>
@@ -1751,6 +1760,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>11/03/2011</t>
@@ -1798,6 +1808,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>14/03/2011</t>
@@ -1897,6 +1908,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>11/04/2011</t>
@@ -2100,6 +2112,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>19/08/2011</t>
@@ -2147,6 +2160,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>21/08/2011</t>
@@ -2194,6 +2208,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>13/10/2011</t>
@@ -2345,6 +2360,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>03/12/2011</t>
@@ -2444,6 +2460,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>23/03/2013</t>
@@ -2491,6 +2508,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -2503,7 +2521,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2642,6 +2660,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>03/11/2013</t>
@@ -2793,6 +2812,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>22/02/2014</t>
@@ -2840,6 +2860,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>26/02/2014</t>
@@ -2991,6 +3012,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/11/2014</t>
@@ -3090,6 +3112,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>26/11/2014</t>
@@ -3293,6 +3316,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -3340,6 +3364,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>09/03/2015</t>
@@ -3491,6 +3516,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>17/04/2015</t>
@@ -3538,6 +3564,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>19/04/2015</t>
@@ -3585,6 +3612,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -3684,6 +3712,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>21/06/2015</t>
@@ -3783,6 +3812,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -3830,6 +3860,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -3981,6 +4012,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -4080,6 +4112,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -4127,6 +4160,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -4174,6 +4208,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -4273,6 +4308,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -4320,6 +4356,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -4367,6 +4404,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -4518,6 +4556,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -4565,6 +4604,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>19/01/2018</t>
@@ -4768,6 +4808,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -4815,6 +4856,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>25/07/2018</t>
@@ -4862,6 +4904,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -5169,6 +5212,7 @@
           <t>94</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>09/12/2018</t>
@@ -5216,6 +5260,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -5315,6 +5360,7 @@
           <t>97</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>15/05/2019</t>
@@ -5362,6 +5408,7 @@
           <t>98</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -5565,6 +5612,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>20/01/2021</t>
@@ -5612,6 +5660,7 @@
           <t>103</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -9538,755 +9587,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4193</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4199</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4204</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4205</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.24%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4329</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4443</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4445</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4193</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4199</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4204</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4205</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4329</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4443</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4445</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>